--- a/other/GetMinimalNumberOfCoinsInChange.xlsx
+++ b/other/GetMinimalNumberOfCoinsInChange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wformans\HxGN\00-organizational\UW\WDP\repo\WDP\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477ABE9-D130-482E-917E-3DB51685BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D3E54C-9F6E-426E-838A-09B0F2D0D778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{615345A8-5449-4696-B430-967B2F8608C4}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -397,101 +396,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F926876F-2C10-49AA-9966-AC01A71E0661}">
-  <dimension ref="A3:H64"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="b">
@@ -503,44 +536,44 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -554,41 +587,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -596,7 +611,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -604,7 +619,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -612,7 +627,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -620,7 +635,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -628,7 +643,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -636,7 +651,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -644,7 +659,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -652,7 +667,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -660,7 +675,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -668,7 +683,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -676,7 +691,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -684,7 +699,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -692,7 +707,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -700,7 +715,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -708,7 +723,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -716,7 +731,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -724,7 +739,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -732,7 +747,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -740,7 +755,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -748,7 +763,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -756,7 +771,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -764,7 +779,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -772,7 +787,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -780,7 +795,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -788,7 +803,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -796,7 +811,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -804,7 +819,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -812,7 +827,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -820,7 +835,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -828,7 +843,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -836,7 +851,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -844,7 +859,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -852,7 +867,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -860,7 +875,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -868,7 +883,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -876,7 +891,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -884,7 +899,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -892,7 +907,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -900,7 +915,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -908,7 +923,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -916,7 +931,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -924,7 +939,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -932,7 +947,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -940,7 +955,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -948,7 +963,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -956,7 +971,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -964,7 +979,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -972,25 +987,9 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>59</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="G64" t="b">
         <v>1</v>
       </c>
     </row>
